--- a/components/mockup-data/data/slideParentType.xlsx
+++ b/components/mockup-data/data/slideParentType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Học kì VII\Web\Kahoot\BE\components\mockup-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E0895-7835-4AF7-AC60-EA53D83C2D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96206E0-B27D-4E06-B08D-C8BFD4395520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2976" yWindow="1728" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t>Quiz</t>
   </si>
   <si>
     <t>Content</t>
@@ -354,9 +351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -375,11 +374,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/components/mockup-data/data/slideParentType.xlsx
+++ b/components/mockup-data/data/slideParentType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Học kì VII\Web\Kahoot\BE\components\mockup-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96206E0-B27D-4E06-B08D-C8BFD4395520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C923ED0-1854-4D95-9150-82F50B6D3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
